--- a/biology/Zoologie/Cerithium_vulgatum/Cerithium_vulgatum.xlsx
+++ b/biology/Zoologie/Cerithium_vulgatum/Cerithium_vulgatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Cerithium vulgatum est un mollusque appartenant à la famille des Cerithiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Noms vernaculaires : cérithe goumier ou cérithe commun.
 Allemand : Gemeine Hornsschnecke, Nadelschnecke.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coquille robuste avec un apex très pointu. Les tours de spire sont en pente raide et la suture est peu profonde. Les sillons spiralés sont plus forts au milieu du tour de spire, les rangées spirales de tubercules peuvent se transformer en petites épines. La columelle est sinueuse avec un épaississement à l'extrémité supérieur du bord columellaire. Le bord du labre est ondulant, il se termine par un court canal siphonal. La coquille est de couleur grise ou brun pâle avec des taches brun foncé.
 Sa taille est comprise entre 4 et 7 cm.
@@ -578,9 +594,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce gastéropode préfère les fonds sédimentaires (sableux ou vaseux) recouverts d'algues. Il vit en eau peu profonde, souvent à proximité de substrats durs[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce gastéropode préfère les fonds sédimentaires (sableux ou vaseux) recouverts d'algues. Il vit en eau peu profonde, souvent à proximité de substrats durs.
 Il est commun en Méditerranée, mais plus rare dans l'Atlantique.
 </t>
         </is>
@@ -610,7 +628,9 @@
           <t>Synonymes[2]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cerithium aluchensis Brusina, 1870
 Cerithium bourguignati Locard, 1886
@@ -662,7 +682,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Arianna Fulvo et Roberto Nistri, 350 coquillages du monde entier, Paris, Delachaux et Niestlé, 2005, 256 p.  (ISBN 2-603-01374-2).
 Gert Linder, Guide des coquillage marins, Paris, Delachaux et Niestlé, 2005, 319 p.  (ISBN 978-2-603-01457-8).</t>
